--- a/medicine/Enfance/Steven_Farley/Steven_Farley.xlsx
+++ b/medicine/Enfance/Steven_Farley/Steven_Farley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Steven Farley est un écrivain américain de littérature d'enfance et de jeunesse, fils de Walter Farley. Il est le continuateur de la série de romans L'Étalon noir depuis 1998, ainsi que le créateur du spin-off Ébène, fils de l'étalon noir.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steven Farley est l'un des fils de Walter Farley, le créateur du best-seller L'Étalon noir. En 1989, il co-écrit L'étalon noir - La naissance d'un champion avec son père, qui déclare lui passer le flambeau dans l'ouvrage. Il vit à Manhattan et voyage beaucoup pour pratiquer l'équitation, la plongée et le surf. Il se rend dans le même cottage que celui qu'affectionnait son père pour écrire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steven Farley est l'un des fils de Walter Farley, le créateur du best-seller L'Étalon noir. En 1989, il co-écrit L'étalon noir - La naissance d'un champion avec son père, qui déclare lui passer le flambeau dans l'ouvrage. Il vit à Manhattan et voyage beaucoup pour pratiquer l'équitation, la plongée et le surf. Il se rend dans le même cottage que celui qu'affectionnait son père pour écrire.
 </t>
         </is>
       </c>
